--- a/chu_I.xlsx
+++ b/chu_I.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BtapPythonBKEL\BTL De 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\year3\cohocvatranbiendang\btl\beam-analysis-python\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5725026-4ABD-45AE-AD83-58D154B66B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -164,7 +159,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -540,19 +535,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="P2" sqref="P2:P28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="1" max="1" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -602,7 +597,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
@@ -652,7 +647,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>25</v>
       </c>
@@ -702,7 +697,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>26</v>
       </c>
@@ -752,7 +747,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>27</v>
       </c>
@@ -802,7 +797,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>28</v>
       </c>
@@ -852,7 +847,7 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -902,7 +897,7 @@
         <v>2.17</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>29</v>
       </c>
@@ -952,7 +947,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
@@ -1002,7 +997,7 @@
         <v>2.29</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>30</v>
       </c>
@@ -1052,7 +1047,7 @@
         <v>2.2599999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
@@ -1102,7 +1097,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>31</v>
       </c>
@@ -1152,7 +1147,7 @@
         <v>2.37</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
@@ -1202,7 +1197,7 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>32</v>
       </c>
@@ -1252,7 +1247,7 @@
         <v>2.54</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -1302,7 +1297,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>33</v>
       </c>
@@ -1352,7 +1347,7 @@
         <v>2.69</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
@@ -1402,7 +1397,7 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>34</v>
       </c>
@@ -1452,7 +1447,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>35</v>
       </c>
@@ -1502,7 +1497,7 @@
         <v>2.89</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>36</v>
       </c>
@@ -1552,7 +1547,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>37</v>
       </c>
@@ -1602,7 +1597,7 @@
         <v>3.12</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>38</v>
       </c>
@@ -1652,7 +1647,7 @@
         <v>3.28</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>39</v>
       </c>
@@ -1702,7 +1697,7 @@
         <v>3.46</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>40</v>
       </c>
@@ -1752,7 +1747,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>41</v>
       </c>
@@ -1802,7 +1797,7 @@
         <v>3.79</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>42</v>
       </c>
@@ -1852,7 +1847,7 @@
         <v>3.96</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>22</v>
       </c>
@@ -1902,7 +1897,7 @@
         <v>4.01</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>23</v>
       </c>
@@ -1952,7 +1947,7 @@
         <v>4.09</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1970,7 +1965,7 @@
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
